--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Serpine1-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Serpine1-Lrp1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.415008</v>
+        <v>27.63641</v>
       </c>
       <c r="H2">
-        <v>58.245024</v>
+        <v>82.90923000000001</v>
       </c>
       <c r="I2">
-        <v>0.1084529650088565</v>
+        <v>0.1577716087636821</v>
       </c>
       <c r="J2">
-        <v>0.1166494513416496</v>
+        <v>0.1653201523274948</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N2">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O2">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P2">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q2">
-        <v>76.62472022673066</v>
+        <v>80.33479707499666</v>
       </c>
       <c r="R2">
-        <v>689.622482040576</v>
+        <v>723.0131736749699</v>
       </c>
       <c r="S2">
-        <v>0.0008765480814176144</v>
+        <v>0.0008709822269125293</v>
       </c>
       <c r="T2">
-        <v>0.0009702532199262783</v>
+        <v>0.0009298499495359648</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.415008</v>
+        <v>27.63641</v>
       </c>
       <c r="H3">
-        <v>58.245024</v>
+        <v>82.90923000000001</v>
       </c>
       <c r="I3">
-        <v>0.1084529650088565</v>
+        <v>0.1577716087636821</v>
       </c>
       <c r="J3">
-        <v>0.1166494513416496</v>
+        <v>0.1653201523274948</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>557.408233</v>
       </c>
       <c r="O3">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P3">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q3">
-        <v>3607.361767653621</v>
+        <v>5134.920821521177</v>
       </c>
       <c r="R3">
-        <v>32466.25590888259</v>
+        <v>46214.2873936906</v>
       </c>
       <c r="S3">
-        <v>0.04126639584535746</v>
+        <v>0.05567232301555192</v>
       </c>
       <c r="T3">
-        <v>0.04567787471390827</v>
+        <v>0.05943508965741467</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.415008</v>
+        <v>27.63641</v>
       </c>
       <c r="H4">
-        <v>58.245024</v>
+        <v>82.90923000000001</v>
       </c>
       <c r="I4">
-        <v>0.1084529650088565</v>
+        <v>0.1577716087636821</v>
       </c>
       <c r="J4">
-        <v>0.1166494513416496</v>
+        <v>0.1653201523274948</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N4">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O4">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P4">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q4">
-        <v>2278.145862147062</v>
+        <v>3788.169940112553</v>
       </c>
       <c r="R4">
-        <v>20503.31275932355</v>
+        <v>34093.52946101298</v>
       </c>
       <c r="S4">
-        <v>0.02606083753057359</v>
+        <v>0.04107097808789071</v>
       </c>
       <c r="T4">
-        <v>0.02884680494322796</v>
+        <v>0.0438468727861346</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.415008</v>
+        <v>27.63641</v>
       </c>
       <c r="H5">
-        <v>58.245024</v>
+        <v>82.90923000000001</v>
       </c>
       <c r="I5">
-        <v>0.1084529650088565</v>
+        <v>0.1577716087636821</v>
       </c>
       <c r="J5">
-        <v>0.1166494513416496</v>
+        <v>0.1653201523274948</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N5">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O5">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P5">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q5">
-        <v>804.918545878592</v>
+        <v>807.335163135965</v>
       </c>
       <c r="R5">
-        <v>4829.511275271552</v>
+        <v>4844.010978815791</v>
       </c>
       <c r="S5">
-        <v>0.009207861444709113</v>
+        <v>0.008753051029636676</v>
       </c>
       <c r="T5">
-        <v>0.006794802935712272</v>
+        <v>0.006229766660141635</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.415008</v>
+        <v>27.63641</v>
       </c>
       <c r="H6">
-        <v>58.245024</v>
+        <v>82.90923000000001</v>
       </c>
       <c r="I6">
-        <v>0.1084529650088565</v>
+        <v>0.1577716087636821</v>
       </c>
       <c r="J6">
-        <v>0.1166494513416496</v>
+        <v>0.1653201523274948</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N6">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O6">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P6">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q6">
-        <v>2713.522135664885</v>
+        <v>4741.258576132373</v>
       </c>
       <c r="R6">
-        <v>24421.69922098397</v>
+        <v>42671.32718519136</v>
       </c>
       <c r="S6">
-        <v>0.03104132210679873</v>
+        <v>0.05140427440369026</v>
       </c>
       <c r="T6">
-        <v>0.03435971552887482</v>
+        <v>0.0548785732742679</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>326.207718</v>
       </c>
       <c r="I7">
-        <v>0.6074028611589709</v>
+        <v>0.6207549685359464</v>
       </c>
       <c r="J7">
-        <v>0.6533081920974323</v>
+        <v>0.650454836333234</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N7">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O7">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P7">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q7">
-        <v>429.145245567248</v>
+        <v>316.078569657778</v>
       </c>
       <c r="R7">
-        <v>3862.307210105232</v>
+        <v>2844.707126920001</v>
       </c>
       <c r="S7">
-        <v>0.004909204764968733</v>
+        <v>0.00342689378082144</v>
       </c>
       <c r="T7">
-        <v>0.005434010787845214</v>
+        <v>0.003658509795839887</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>326.207718</v>
       </c>
       <c r="I8">
-        <v>0.6074028611589709</v>
+        <v>0.6207549685359464</v>
       </c>
       <c r="J8">
-        <v>0.6533081920974323</v>
+        <v>0.650454836333234</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>557.408233</v>
       </c>
       <c r="O8">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P8">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q8">
         <v>20203.42974237137</v>
@@ -948,10 +948,10 @@
         <v>181830.8676813423</v>
       </c>
       <c r="S8">
-        <v>0.2311170275901807</v>
+        <v>0.2190436631321032</v>
       </c>
       <c r="T8">
-        <v>0.255824004356388</v>
+        <v>0.233848329869553</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>326.207718</v>
       </c>
       <c r="I9">
-        <v>0.6074028611589709</v>
+        <v>0.6207549685359464</v>
       </c>
       <c r="J9">
-        <v>0.6533081920974323</v>
+        <v>0.650454836333234</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N9">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O9">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P9">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q9">
-        <v>12759.00861440345</v>
+        <v>14904.61642883805</v>
       </c>
       <c r="R9">
-        <v>114831.077529631</v>
+        <v>134141.5478595425</v>
       </c>
       <c r="S9">
-        <v>0.1459566115041375</v>
+        <v>0.1615944333107283</v>
       </c>
       <c r="T9">
-        <v>0.1615597310445183</v>
+        <v>0.1725162362863732</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>326.207718</v>
       </c>
       <c r="I10">
-        <v>0.6074028611589709</v>
+        <v>0.6207549685359464</v>
       </c>
       <c r="J10">
-        <v>0.6533081920974323</v>
+        <v>0.650454836333234</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N10">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O10">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P10">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q10">
-        <v>4508.035605358044</v>
+        <v>3176.473370066769</v>
       </c>
       <c r="R10">
-        <v>27048.21363214826</v>
+        <v>19058.84022040061</v>
       </c>
       <c r="S10">
-        <v>0.05156964944402363</v>
+        <v>0.03443902207167201</v>
       </c>
       <c r="T10">
-        <v>0.03805504758515339</v>
+        <v>0.02451111855552493</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>326.207718</v>
       </c>
       <c r="I11">
-        <v>0.6074028611589709</v>
+        <v>0.6207549685359464</v>
       </c>
       <c r="J11">
-        <v>0.6533081920974323</v>
+        <v>0.650454836333234</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N11">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O11">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P11">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q11">
-        <v>15197.38173028701</v>
+        <v>18654.55921576006</v>
       </c>
       <c r="R11">
-        <v>136776.4355725831</v>
+        <v>167891.0329418406</v>
       </c>
       <c r="S11">
-        <v>0.1738503678556604</v>
+        <v>0.2022509562406214</v>
       </c>
       <c r="T11">
-        <v>0.1924353983235275</v>
+        <v>0.2159206418259429</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.098659666666666</v>
+        <v>6.867169333333333</v>
       </c>
       <c r="H12">
-        <v>21.295979</v>
+        <v>20.601508</v>
       </c>
       <c r="I12">
-        <v>0.03965337992334491</v>
+        <v>0.03920351280693195</v>
       </c>
       <c r="J12">
-        <v>0.04265024023568591</v>
+        <v>0.04107919517207073</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N12">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O12">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P12">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q12">
-        <v>28.01610027372178</v>
+        <v>19.96180599697911</v>
       </c>
       <c r="R12">
-        <v>252.144902463496</v>
+        <v>179.656253972812</v>
       </c>
       <c r="S12">
-        <v>0.0003204900307768747</v>
+        <v>0.0002164240014724089</v>
       </c>
       <c r="T12">
-        <v>0.0003547512006559119</v>
+        <v>0.0002310516111917186</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.098659666666666</v>
+        <v>6.867169333333333</v>
       </c>
       <c r="H13">
-        <v>21.295979</v>
+        <v>20.601508</v>
       </c>
       <c r="I13">
-        <v>0.03965337992334491</v>
+        <v>0.03920351280693195</v>
       </c>
       <c r="J13">
-        <v>0.04265024023568591</v>
+        <v>0.04107919517207073</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>557.408233</v>
       </c>
       <c r="O13">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P13">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q13">
-        <v>1318.950447155012</v>
+        <v>1275.93890793504</v>
       </c>
       <c r="R13">
-        <v>11870.55402439511</v>
+        <v>11483.45017141536</v>
       </c>
       <c r="S13">
-        <v>0.01508812665831195</v>
+        <v>0.01383360824824301</v>
       </c>
       <c r="T13">
-        <v>0.01670108438228168</v>
+        <v>0.01476859060273441</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.098659666666666</v>
+        <v>6.867169333333333</v>
       </c>
       <c r="H14">
-        <v>21.295979</v>
+        <v>20.601508</v>
       </c>
       <c r="I14">
-        <v>0.03965337992334491</v>
+        <v>0.03920351280693195</v>
       </c>
       <c r="J14">
-        <v>0.04265024023568591</v>
+        <v>0.04107919517207073</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N14">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O14">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P14">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q14">
-        <v>832.9526388249186</v>
+        <v>941.294634223334</v>
       </c>
       <c r="R14">
-        <v>7496.573749424268</v>
+        <v>8471.651708010006</v>
       </c>
       <c r="S14">
-        <v>0.009528557302569005</v>
+        <v>0.01020542687039193</v>
       </c>
       <c r="T14">
-        <v>0.01054718343472704</v>
+        <v>0.01089518863555402</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.098659666666666</v>
+        <v>6.867169333333333</v>
       </c>
       <c r="H15">
-        <v>21.295979</v>
+        <v>20.601508</v>
       </c>
       <c r="I15">
-        <v>0.03965337992334491</v>
+        <v>0.03920351280693195</v>
       </c>
       <c r="J15">
-        <v>0.04265024023568591</v>
+        <v>0.04107919517207073</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N15">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O15">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P15">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q15">
-        <v>294.3003070913153</v>
+        <v>200.6088082355473</v>
       </c>
       <c r="R15">
-        <v>1765.801842547892</v>
+        <v>1203.652849413284</v>
       </c>
       <c r="S15">
-        <v>0.003366646805080463</v>
+        <v>0.00217498161316259</v>
       </c>
       <c r="T15">
-        <v>0.002484366400605602</v>
+        <v>0.001547989140497881</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.098659666666666</v>
+        <v>6.867169333333333</v>
       </c>
       <c r="H16">
-        <v>21.295979</v>
+        <v>20.601508</v>
       </c>
       <c r="I16">
-        <v>0.03965337992334491</v>
+        <v>0.03920351280693195</v>
       </c>
       <c r="J16">
-        <v>0.04265024023568591</v>
+        <v>0.04107919517207073</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N16">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O16">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P16">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q16">
-        <v>992.1381510144892</v>
+        <v>1178.120656605539</v>
       </c>
       <c r="R16">
-        <v>8929.243359130403</v>
+        <v>10603.08590944985</v>
       </c>
       <c r="S16">
-        <v>0.01134955912660662</v>
+        <v>0.01277307207366201</v>
       </c>
       <c r="T16">
-        <v>0.01256285481741568</v>
+        <v>0.01363637518209271</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>37.7365695</v>
+        <v>23.994483</v>
       </c>
       <c r="H17">
-        <v>75.473139</v>
+        <v>47.988966</v>
       </c>
       <c r="I17">
-        <v>0.2107978967372963</v>
+        <v>0.1369804610788022</v>
       </c>
       <c r="J17">
-        <v>0.1511528307616812</v>
+        <v>0.09568950488575238</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N17">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O17">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P17">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q17">
-        <v>148.933962852556</v>
+        <v>69.748274928779</v>
       </c>
       <c r="R17">
-        <v>893.603777115336</v>
+        <v>418.489649572674</v>
       </c>
       <c r="S17">
-        <v>0.001703729279663829</v>
+        <v>0.0007562041609946743</v>
       </c>
       <c r="T17">
-        <v>0.001257241410574293</v>
+        <v>0.0005382095288230651</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>37.7365695</v>
+        <v>23.994483</v>
       </c>
       <c r="H18">
-        <v>75.473139</v>
+        <v>47.988966</v>
       </c>
       <c r="I18">
-        <v>0.2107978967372963</v>
+        <v>0.1369804610788022</v>
       </c>
       <c r="J18">
-        <v>0.1511528307616812</v>
+        <v>0.09568950488575238</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>557.408233</v>
       </c>
       <c r="O18">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P18">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q18">
-        <v>7011.558174825564</v>
+        <v>4458.240790259513</v>
       </c>
       <c r="R18">
-        <v>42069.34904895339</v>
+        <v>26749.44474155708</v>
       </c>
       <c r="S18">
-        <v>0.08020868262494885</v>
+        <v>0.04833582249529404</v>
       </c>
       <c r="T18">
-        <v>0.05918879160402414</v>
+        <v>0.03440182108525944</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>37.7365695</v>
+        <v>23.994483</v>
       </c>
       <c r="H19">
-        <v>75.473139</v>
+        <v>47.988966</v>
       </c>
       <c r="I19">
-        <v>0.2107978967372963</v>
+        <v>0.1369804610788022</v>
       </c>
       <c r="J19">
-        <v>0.1511528307616812</v>
+        <v>0.09568950488575238</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N19">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O19">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P19">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q19">
-        <v>4427.987341444825</v>
+        <v>3288.964783383286</v>
       </c>
       <c r="R19">
-        <v>26567.92404866895</v>
+        <v>19733.78870029972</v>
       </c>
       <c r="S19">
-        <v>0.0506539377527271</v>
+        <v>0.03565864327252585</v>
       </c>
       <c r="T19">
-        <v>0.03737931190802034</v>
+        <v>0.02537915365201364</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>37.7365695</v>
+        <v>23.994483</v>
       </c>
       <c r="H20">
-        <v>75.473139</v>
+        <v>47.988966</v>
       </c>
       <c r="I20">
-        <v>0.2107978967372963</v>
+        <v>0.1369804610788022</v>
       </c>
       <c r="J20">
-        <v>0.1511528307616812</v>
+        <v>0.09568950488575238</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N20">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O20">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P20">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q20">
-        <v>1564.504359121893</v>
+        <v>700.9445093327296</v>
       </c>
       <c r="R20">
-        <v>6258.017436487572</v>
+        <v>2803.778037330918</v>
       </c>
       <c r="S20">
-        <v>0.01789713933440748</v>
+        <v>0.007599573683005489</v>
       </c>
       <c r="T20">
-        <v>0.008804616621749875</v>
+        <v>0.003605871872666897</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>37.7365695</v>
+        <v>23.994483</v>
       </c>
       <c r="H21">
-        <v>75.473139</v>
+        <v>47.988966</v>
       </c>
       <c r="I21">
-        <v>0.2107978967372963</v>
+        <v>0.1369804610788022</v>
       </c>
       <c r="J21">
-        <v>0.1511528307616812</v>
+        <v>0.09568950488575238</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N21">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O21">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P21">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q21">
-        <v>5274.21964813542</v>
+        <v>4116.455368248352</v>
       </c>
       <c r="R21">
-        <v>31645.31788881253</v>
+        <v>24698.73220949011</v>
       </c>
       <c r="S21">
-        <v>0.06033440774554905</v>
+        <v>0.04463021746698219</v>
       </c>
       <c r="T21">
-        <v>0.0445228692173125</v>
+        <v>0.03176444874698934</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.031627333333333</v>
+        <v>7.933225666666668</v>
       </c>
       <c r="H22">
-        <v>18.094882</v>
+        <v>23.799677</v>
       </c>
       <c r="I22">
-        <v>0.03369289717153155</v>
+        <v>0.04528944881463745</v>
       </c>
       <c r="J22">
-        <v>0.03623928556355116</v>
+        <v>0.04745631128144808</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N22">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O22">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P22">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q22">
-        <v>23.80487079524089</v>
+        <v>23.06066794065589</v>
       </c>
       <c r="R22">
-        <v>214.243837157168</v>
+        <v>207.546011465903</v>
       </c>
       <c r="S22">
-        <v>0.000272315693450107</v>
+        <v>0.0002500215678430364</v>
       </c>
       <c r="T22">
-        <v>0.0003014269085834019</v>
+        <v>0.0002669199612325704</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.031627333333333</v>
+        <v>7.933225666666668</v>
       </c>
       <c r="H23">
-        <v>18.094882</v>
+        <v>23.799677</v>
       </c>
       <c r="I23">
-        <v>0.03369289717153155</v>
+        <v>0.04528944881463745</v>
       </c>
       <c r="J23">
-        <v>0.03623928556355116</v>
+        <v>0.04745631128144808</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>557.408233</v>
       </c>
       <c r="O23">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P23">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q23">
-        <v>1120.692911329278</v>
+        <v>1474.015100282305</v>
       </c>
       <c r="R23">
-        <v>10086.23620196351</v>
+        <v>13266.13590254074</v>
       </c>
       <c r="S23">
-        <v>0.0128201606267178</v>
+        <v>0.01598113148089545</v>
       </c>
       <c r="T23">
-        <v>0.0141906672226447</v>
+        <v>0.017061260083015</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.031627333333333</v>
+        <v>7.933225666666668</v>
       </c>
       <c r="H24">
-        <v>18.094882</v>
+        <v>23.799677</v>
       </c>
       <c r="I24">
-        <v>0.03369289717153155</v>
+        <v>0.04528944881463745</v>
       </c>
       <c r="J24">
-        <v>0.03623928556355116</v>
+        <v>0.04745631128144808</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N24">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O24">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P24">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q24">
-        <v>707.7476790865318</v>
+        <v>1087.420797368256</v>
       </c>
       <c r="R24">
-        <v>6369.729111778785</v>
+        <v>9786.787176314301</v>
       </c>
       <c r="S24">
-        <v>0.008096275828419272</v>
+        <v>0.01178971282890791</v>
       </c>
       <c r="T24">
-        <v>0.008961787560165252</v>
+        <v>0.01258655290575119</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.031627333333333</v>
+        <v>7.933225666666668</v>
       </c>
       <c r="H25">
-        <v>18.094882</v>
+        <v>23.799677</v>
       </c>
       <c r="I25">
-        <v>0.03369289717153155</v>
+        <v>0.04528944881463745</v>
       </c>
       <c r="J25">
-        <v>0.03623928556355116</v>
+        <v>0.04745631128144808</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N25">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O25">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P25">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q25">
-        <v>250.0626681394226</v>
+        <v>231.7512309953702</v>
       </c>
       <c r="R25">
-        <v>1500.376008836536</v>
+        <v>1390.507385972221</v>
       </c>
       <c r="S25">
-        <v>0.002860590568464027</v>
+        <v>0.002512624797864729</v>
       </c>
       <c r="T25">
-        <v>0.002110929808097721</v>
+        <v>0.001788298290754114</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.031627333333333</v>
+        <v>7.933225666666668</v>
       </c>
       <c r="H26">
-        <v>18.094882</v>
+        <v>23.799677</v>
       </c>
       <c r="I26">
-        <v>0.03369289717153155</v>
+        <v>0.04528944881463745</v>
       </c>
       <c r="J26">
-        <v>0.03623928556355116</v>
+        <v>0.04745631128144808</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N26">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O26">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P26">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q26">
-        <v>843.005281433897</v>
+        <v>1361.011586833341</v>
       </c>
       <c r="R26">
-        <v>7587.047532905073</v>
+        <v>12249.10428150006</v>
       </c>
       <c r="S26">
-        <v>0.009643554454480341</v>
+        <v>0.01475595813912632</v>
       </c>
       <c r="T26">
-        <v>0.01067447406406009</v>
+        <v>0.01575328004069521</v>
       </c>
     </row>
   </sheetData>
